--- a/4权限架构需求书/贷后组织 架构修改业务需求-工作量.xlsx
+++ b/4权限架构需求书/贷后组织 架构修改业务需求-工作量.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t>重庆农村商业银行工作量评估表</t>
   </si>
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>登录时获取用户资源逻辑修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -792,13 +796,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,12 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1173,7 +1177,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1186,22 +1190,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -1210,10 +1214,10 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1">
@@ -1223,10 +1227,10 @@
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
@@ -1238,22 +1242,22 @@
       <c r="B5" s="21">
         <v>44186</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -1266,64 +1270,64 @@
       <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="35.5" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="59" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" ht="64" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="42">
       <c r="A14" s="19" t="s">
@@ -1795,7 +1799,9 @@
         <v>4.8</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15">
       <c r="A50" s="27">
@@ -1839,11 +1845,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="A13:E13"/>
@@ -1852,6 +1853,11 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.196527777777778" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
